--- a/modelSaveLoad.xlsx
+++ b/modelSaveLoad.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ML-Study\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D71A86-3092-445E-94A4-A827FC76728C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63841437-0603-4DE0-AA0D-91AE697AB7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pytorch-saveLoad" sheetId="1" r:id="rId1"/>
     <sheet name="Pytorch-checkpoints" sheetId="2" r:id="rId2"/>
     <sheet name="Pytorch-GPU" sheetId="3" r:id="rId3"/>
+    <sheet name="TensorFlow" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,9 +27,2803 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.summary())</t>
+    </r>
+  </si>
+  <si>
+    <t># or need to load weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># then need to train new_model with learning rate and loss </t>
+  </si>
+  <si>
+    <r>
+      <t>new_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model_from_json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>loaded_json_string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>loaded_json_string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nn_model.json"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"r"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>write</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>json_string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nn_model.json"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"w"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>json_string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>to_json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t># 3) save only architecture, to_json</t>
+  </si>
+  <si>
+    <r>
+      <t>new_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>load_weights</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nn_weights.h5"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>new_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Sequential</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([...])</t>
+    </r>
+  </si>
+  <si>
+    <t># need to initilaize model first:</t>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>save_weights</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nn_weights.h5"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># 2) save only weights</t>
+  </si>
+  <si>
+    <r>
+      <t>new_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>load_model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nn.h5"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nn.h5"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># .h5 = HDF5</t>
+    </r>
+  </si>
+  <si>
+    <t># model.save("nn")  # no file ending = SavedModel</t>
+  </si>
+  <si>
+    <t># two formats: SavedModel or HDF5</t>
+  </si>
+  <si>
+    <t># 1) Save whole model</t>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>evaluate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>verbose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Evaluate:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>batch_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>epochs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>shuffle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>verbose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># fit/training</t>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optimizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># compile</t>
+  </si>
+  <si>
+    <r>
+      <t>metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SparseCategoricalAccuracy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">()] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># "accuracy"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>optim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>optimizers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Adam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># "adam"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>losses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SparseCategoricalCrossentropy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from_logits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># config</t>
+  </si>
+  <si>
+    <t>])</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>layers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Dense</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>layers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Dense</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>activation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'relu'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>layers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Flatten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input_shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Sequential</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+  </si>
+  <si>
+    <t># Feed forward neural network</t>
+  </si>
+  <si>
+    <r>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>255.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>255.0</t>
+    </r>
+  </si>
+  <si>
+    <t># normalize</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>), (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mnist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>load_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mnist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>datasets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mnist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>numpy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tensorflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>keras</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tensorflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>os</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>environ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'TF_CPP_MIN_LOG_LEVEL'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'2'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>os</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,16 +2831,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -53,12 +2920,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +3434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" zoomScaleNormal="78" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="78" zoomScaleNormal="78" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -523,4 +3469,313 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1514CA-10EE-43C1-8380-CCE1E8CC528D}">
+  <dimension ref="B1:B67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="116.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>